--- a/Team-Data/2007-08/11-18-2007-08.xlsx
+++ b/Team-Data/2007-08/11-18-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>-3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -777,10 +844,10 @@
         <v>28</v>
       </c>
       <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
         <v>9</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -810,13 +877,13 @@
         <v>25</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.504</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="P3" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
         <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="V3" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="W3" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.2</v>
+        <v>15.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -953,19 +1020,19 @@
         <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,25 +1047,25 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>24</v>
       </c>
-      <c r="AY3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>28</v>
-      </c>
       <c r="BA3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB3" t="n">
         <v>8</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1132,13 +1199,13 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1156,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="AT4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1168,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="J5" t="n">
-        <v>86.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="L5" t="n">
         <v>4.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="O5" t="n">
-        <v>16.2</v>
+        <v>16.9</v>
       </c>
       <c r="P5" t="n">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>43</v>
       </c>
       <c r="U5" t="n">
         <v>19.9</v>
       </c>
       <c r="V5" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1317,55 +1384,55 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA5" t="n">
         <v>13</v>
       </c>
-      <c r="BA5" t="n">
-        <v>14</v>
-      </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>8</v>
@@ -1508,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
@@ -1520,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>23</v>
@@ -1529,13 +1596,13 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
         <v>20</v>
@@ -1544,7 +1611,7 @@
         <v>20</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="n">
         <v>13</v>
@@ -1690,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
         <v>3</v>
@@ -1708,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
         <v>25</v>
@@ -1723,13 +1790,13 @@
         <v>16</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>9.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1869,19 +1936,19 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS8" t="n">
         <v>2</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1893,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>2</v>
@@ -1902,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>7</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -1940,160 +2007,160 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.715</v>
+        <v>0.735</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.2</v>
+        <v>32</v>
       </c>
       <c r="T9" t="n">
-        <v>42.2</v>
+        <v>43.3</v>
       </c>
       <c r="U9" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V9" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
         <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
         <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
         <v>16</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>17</v>
-      </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
@@ -2140,76 +2207,76 @@
         <v>40.4</v>
       </c>
       <c r="J10" t="n">
-        <v>87.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P10" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="T10" t="n">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="W10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AA10" t="n">
         <v>23</v>
       </c>
-      <c r="AA10" t="n">
-        <v>23.6</v>
-      </c>
       <c r="AB10" t="n">
-        <v>108.9</v>
+        <v>109.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.4</v>
+        <v>-7</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2221,22 +2288,22 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2245,37 +2312,37 @@
         <v>15</v>
       </c>
       <c r="AS10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT10" t="n">
         <v>27</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>26</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
         <v>24</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>23</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>22</v>
-      </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2455,16 @@
         <v>9</v>
       </c>
       <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2415,13 +2482,13 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>7</v>
@@ -2430,7 +2497,7 @@
         <v>24</v>
       </c>
       <c r="AT11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2442,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>16</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
@@ -2612,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2624,10 +2691,10 @@
         <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2773,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2782,19 +2849,19 @@
         <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2806,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.2</v>
+        <v>81.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M14" t="n">
         <v>16.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="O14" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
         <v>29.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.742</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>46.8</v>
+        <v>46.3</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V14" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
@@ -2958,53 +3025,53 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY14" t="n">
         <v>20</v>
       </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AZ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
         <v>11</v>
       </c>
-      <c r="AR14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>8</v>
-      </c>
       <c r="BD14" t="n">
         <v>10</v>
       </c>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -3110,28 +3177,28 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3143,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>12</v>
@@ -3155,10 +3222,10 @@
         <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3170,16 +3237,16 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>24</v>
@@ -3301,16 +3368,16 @@
         <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -3334,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3352,16 +3419,16 @@
         <v>11</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>1</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -3474,28 +3541,28 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3516,13 +3583,13 @@
         <v>25</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>19</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>13</v>
@@ -3531,10 +3598,10 @@
         <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3671,10 +3738,10 @@
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3710,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,7 +3932,7 @@
         <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="n">
         <v>27</v>
@@ -3874,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3883,13 +3950,13 @@
         <v>20</v>
       </c>
       <c r="AS19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU19" t="n">
         <v>11</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>30</v>
@@ -3904,16 +3971,16 @@
         <v>11</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4044,13 +4111,13 @@
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4065,10 +4132,10 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4083,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>25</v>
@@ -4217,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>7</v>
@@ -4235,13 +4302,13 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
         <v>4</v>
@@ -4256,7 +4323,7 @@
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>20</v>
@@ -4268,16 +4335,16 @@
         <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4306,106 +4373,106 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="L22" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.388</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.731</v>
+        <v>0.736</v>
       </c>
       <c r="R22" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>35.3</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>44.5</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="X22" t="n">
         <v>4.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>20</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>23</v>
-      </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,52 +4481,52 @@
         <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
         <v>11</v>
       </c>
-      <c r="AP22" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>9</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>5</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4633,25 @@
         <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4599,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>20</v>
@@ -4611,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="AS23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4623,13 +4690,13 @@
         <v>28</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
@@ -4638,7 +4705,7 @@
         <v>22</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
@@ -4778,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4787,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="n">
         <v>28</v>
@@ -4808,16 +4875,16 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY24" t="n">
         <v>7</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>8</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
@@ -4954,25 +5021,25 @@
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
         <v>27</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>22</v>
@@ -4984,10 +5051,10 @@
         <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>28</v>
@@ -4996,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -5034,97 +5101,97 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I26" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J26" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>5.3</v>
       </c>
       <c r="M26" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O26" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="P26" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.826</v>
+        <v>0.831</v>
       </c>
       <c r="R26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="S26" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="T26" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="U26" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="V26" t="n">
         <v>16.7</v>
       </c>
-      <c r="V26" t="n">
-        <v>16</v>
-      </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
         <v>3.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-5.4</v>
+        <v>-7.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>24</v>
@@ -5133,28 +5200,28 @@
         <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
@@ -5166,28 +5233,28 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
         <v>15</v>
@@ -5327,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
@@ -5339,22 +5406,22 @@
         <v>28</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5369,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5552,7 @@
         <v>30</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>16</v>
@@ -5536,22 +5603,22 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY28" t="n">
         <v>14</v>
       </c>
-      <c r="AY28" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA28" t="n">
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -5580,115 +5647,115 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>83.09999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.429</v>
+        <v>0.459</v>
       </c>
       <c r="O29" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P29" t="n">
         <v>20.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.832</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>40.9</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>14</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
         <v>20</v>
@@ -5697,7 +5764,7 @@
         <v>28</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5706,16 +5773,16 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5724,10 +5791,10 @@
         <v>14</v>
       </c>
       <c r="AZ29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5913,7 @@
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5876,13 +5943,13 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>7</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
@@ -5894,22 +5961,22 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>26</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -6058,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="AP31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ31" t="n">
         <v>6</v>
@@ -6076,22 +6143,22 @@
         <v>24</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-18-2007-08</t>
+          <t>2007-11-18</t>
         </is>
       </c>
     </row>
